--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1344555</v>
+        <v>0.0973985</v>
       </c>
       <c r="H2">
-        <v>0.268911</v>
+        <v>0.194797</v>
       </c>
       <c r="I2">
-        <v>0.1186548994217667</v>
+        <v>0.1072318776436808</v>
       </c>
       <c r="J2">
-        <v>0.09092768822512627</v>
+        <v>0.08750721002233534</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -567,22 +567,22 @@
         <v>1.236857</v>
       </c>
       <c r="O2">
-        <v>0.769469374906488</v>
+        <v>0.719344640233753</v>
       </c>
       <c r="P2">
-        <v>0.8059018119575253</v>
+        <v>0.789299637339657</v>
       </c>
       <c r="Q2">
-        <v>0.05543407545450001</v>
+        <v>0.04015600550483334</v>
       </c>
       <c r="R2">
-        <v>0.3326044527270001</v>
+        <v>0.240936033029</v>
       </c>
       <c r="S2">
-        <v>0.09130131128765905</v>
+        <v>0.07713667644518339</v>
       </c>
       <c r="T2">
-        <v>0.0732787886977382</v>
+        <v>0.06906940913523449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.0973985</v>
+      </c>
+      <c r="H3">
+        <v>0.194797</v>
+      </c>
+      <c r="I3">
+        <v>0.1072318776436808</v>
+      </c>
+      <c r="J3">
+        <v>0.08750721002233534</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.5</v>
       </c>
-      <c r="G3">
-        <v>0.1344555</v>
-      </c>
-      <c r="H3">
-        <v>0.268911</v>
-      </c>
-      <c r="I3">
-        <v>0.1186548994217667</v>
-      </c>
-      <c r="J3">
-        <v>0.09092768822512627</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.018089</v>
+        <v>0.152391</v>
       </c>
       <c r="N3">
-        <v>0.054267</v>
+        <v>0.304782</v>
       </c>
       <c r="O3">
-        <v>0.03376040606800169</v>
+        <v>0.2658876064165748</v>
       </c>
       <c r="P3">
-        <v>0.03535887627227643</v>
+        <v>0.1944964713525131</v>
       </c>
       <c r="Q3">
-        <v>0.0024321655395</v>
+        <v>0.0148426548135</v>
       </c>
       <c r="R3">
-        <v>0.014592993237</v>
+        <v>0.059370619254</v>
       </c>
       <c r="S3">
-        <v>0.004005837586436744</v>
+        <v>0.02851162727823331</v>
       </c>
       <c r="T3">
-        <v>0.003215100877676367</v>
+        <v>0.0170198435672475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1344555</v>
+        <v>0.0973985</v>
       </c>
       <c r="H4">
-        <v>0.268911</v>
+        <v>0.194797</v>
       </c>
       <c r="I4">
-        <v>0.1186548994217667</v>
+        <v>0.1072318776436808</v>
       </c>
       <c r="J4">
-        <v>0.09092768822512627</v>
+        <v>0.08750721002233534</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.07266649999999999</v>
+        <v>0.008464000000000001</v>
       </c>
       <c r="N4">
-        <v>0.145333</v>
+        <v>0.025392</v>
       </c>
       <c r="O4">
-        <v>0.1356211259627644</v>
+        <v>0.01476775334967216</v>
       </c>
       <c r="P4">
-        <v>0.09469496315032619</v>
+        <v>0.0162038913078299</v>
       </c>
       <c r="Q4">
-        <v>0.009770410590749999</v>
+        <v>0.0008243809040000001</v>
       </c>
       <c r="R4">
-        <v>0.039081642363</v>
+        <v>0.004946285424</v>
       </c>
       <c r="S4">
-        <v>0.01609211106057857</v>
+        <v>0.001583573920264102</v>
       </c>
       <c r="T4">
-        <v>0.008610394085822681</v>
+        <v>0.001417957319853365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1344555</v>
+        <v>0.196102</v>
       </c>
       <c r="H5">
-        <v>0.268911</v>
+        <v>0.588306</v>
       </c>
       <c r="I5">
-        <v>0.1186548994217667</v>
+        <v>0.2159005084234469</v>
       </c>
       <c r="J5">
-        <v>0.09092768822512627</v>
+        <v>0.2642803364497401</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03276399999999999</v>
+        <v>0.4122856666666667</v>
       </c>
       <c r="N5">
-        <v>0.09829199999999999</v>
+        <v>1.236857</v>
       </c>
       <c r="O5">
-        <v>0.06114909306274573</v>
+        <v>0.719344640233753</v>
       </c>
       <c r="P5">
-        <v>0.06404434861987203</v>
+        <v>0.789299637339657</v>
       </c>
       <c r="Q5">
-        <v>0.004405300001999999</v>
+        <v>0.08085004380466668</v>
       </c>
       <c r="R5">
-        <v>0.026431800012</v>
+        <v>0.7276503942420001</v>
       </c>
       <c r="S5">
-        <v>0.007255639487092349</v>
+        <v>0.1553068735581488</v>
       </c>
       <c r="T5">
-        <v>0.00582340456388902</v>
+        <v>0.2085963737157824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,40 +797,40 @@
         <v>0.588306</v>
       </c>
       <c r="I6">
-        <v>0.173056982320599</v>
+        <v>0.2159005084234469</v>
       </c>
       <c r="J6">
-        <v>0.1989256837725907</v>
+        <v>0.2642803364497401</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.4122856666666667</v>
+        <v>0.152391</v>
       </c>
       <c r="N6">
-        <v>1.236857</v>
+        <v>0.304782</v>
       </c>
       <c r="O6">
-        <v>0.769469374906488</v>
+        <v>0.2658876064165748</v>
       </c>
       <c r="P6">
-        <v>0.8059018119575253</v>
+        <v>0.1944964713525131</v>
       </c>
       <c r="Q6">
-        <v>0.08085004380466668</v>
+        <v>0.029884179882</v>
       </c>
       <c r="R6">
-        <v>0.7276503942420001</v>
+        <v>0.179305079292</v>
       </c>
       <c r="S6">
-        <v>0.1331620480094345</v>
+        <v>0.05740526940883185</v>
       </c>
       <c r="T6">
-        <v>0.1603145689972205</v>
+        <v>0.0514015928873294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>0.588306</v>
       </c>
       <c r="I7">
-        <v>0.173056982320599</v>
+        <v>0.2159005084234469</v>
       </c>
       <c r="J7">
-        <v>0.1989256837725907</v>
+        <v>0.2642803364497401</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,95 +871,95 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.018089</v>
+        <v>0.008464000000000001</v>
       </c>
       <c r="N7">
-        <v>0.054267</v>
+        <v>0.025392</v>
       </c>
       <c r="O7">
-        <v>0.03376040606800169</v>
+        <v>0.01476775334967216</v>
       </c>
       <c r="P7">
-        <v>0.03535887627227643</v>
+        <v>0.0162038913078299</v>
       </c>
       <c r="Q7">
-        <v>0.003547289078</v>
+        <v>0.001659807328</v>
       </c>
       <c r="R7">
-        <v>0.031925601702</v>
+        <v>0.014938265952</v>
       </c>
       <c r="S7">
-        <v>0.005842473996046412</v>
+        <v>0.00318836545646628</v>
       </c>
       <c r="T7">
-        <v>0.007033788639893022</v>
+        <v>0.004282369846628305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.196102</v>
+        <v>0.003688666666666666</v>
       </c>
       <c r="H8">
-        <v>0.588306</v>
+        <v>0.011066</v>
       </c>
       <c r="I8">
-        <v>0.173056982320599</v>
+        <v>0.004061075403300091</v>
       </c>
       <c r="J8">
-        <v>0.1989256837725907</v>
+        <v>0.004971097019498056</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07266649999999999</v>
+        <v>0.4122856666666667</v>
       </c>
       <c r="N8">
-        <v>0.145333</v>
+        <v>1.236857</v>
       </c>
       <c r="O8">
-        <v>0.1356211259627644</v>
+        <v>0.719344640233753</v>
       </c>
       <c r="P8">
-        <v>0.09469496315032619</v>
+        <v>0.789299637339657</v>
       </c>
       <c r="Q8">
-        <v>0.014250045983</v>
+        <v>0.001520784395777778</v>
       </c>
       <c r="R8">
-        <v>0.08550027589799999</v>
+        <v>0.013687059562</v>
       </c>
       <c r="S8">
-        <v>0.02347018279803785</v>
+        <v>0.002921312824949048</v>
       </c>
       <c r="T8">
-        <v>0.01883726029449891</v>
+        <v>0.003923685074670065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.196102</v>
+        <v>0.003688666666666666</v>
       </c>
       <c r="H9">
-        <v>0.588306</v>
+        <v>0.011066</v>
       </c>
       <c r="I9">
-        <v>0.173056982320599</v>
+        <v>0.004061075403300091</v>
       </c>
       <c r="J9">
-        <v>0.1989256837725907</v>
+        <v>0.004971097019498056</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.03276399999999999</v>
+        <v>0.152391</v>
       </c>
       <c r="N9">
-        <v>0.09829199999999999</v>
+        <v>0.304782</v>
       </c>
       <c r="O9">
-        <v>0.06114909306274573</v>
+        <v>0.2658876064165748</v>
       </c>
       <c r="P9">
-        <v>0.06404434861987203</v>
+        <v>0.1944964713525131</v>
       </c>
       <c r="Q9">
-        <v>0.006425085927999999</v>
+        <v>0.000562119602</v>
       </c>
       <c r="R9">
-        <v>0.057825773352</v>
+        <v>0.003372717612</v>
       </c>
       <c r="S9">
-        <v>0.01058227751708025</v>
+        <v>0.001079789618460687</v>
       </c>
       <c r="T9">
-        <v>0.01274006584097822</v>
+        <v>0.0009668608290433669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,51 +1039,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02014066666666667</v>
+        <v>0.003688666666666666</v>
       </c>
       <c r="H10">
-        <v>0.060422</v>
+        <v>0.011066</v>
       </c>
       <c r="I10">
-        <v>0.0177738268618291</v>
+        <v>0.004061075403300091</v>
       </c>
       <c r="J10">
-        <v>0.02043067326341644</v>
+        <v>0.004971097019498056</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.4122856666666667</v>
+        <v>0.008464000000000001</v>
       </c>
       <c r="N10">
-        <v>1.236857</v>
+        <v>0.025392</v>
       </c>
       <c r="O10">
-        <v>0.769469374906488</v>
+        <v>0.01476775334967216</v>
       </c>
       <c r="P10">
-        <v>0.8059018119575253</v>
+        <v>0.0162038913078299</v>
       </c>
       <c r="Q10">
-        <v>0.008303708183777779</v>
+        <v>3.122087466666667E-05</v>
       </c>
       <c r="R10">
-        <v>0.07473337365400001</v>
+        <v>0.000280987872</v>
       </c>
       <c r="S10">
-        <v>0.01367641544506779</v>
+        <v>5.997295989035613E-05</v>
       </c>
       <c r="T10">
-        <v>0.01646511660249948</v>
+        <v>8.055111578462368E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.02014066666666667</v>
+        <v>0.4014275</v>
       </c>
       <c r="H11">
-        <v>0.060422</v>
+        <v>0.802855</v>
       </c>
       <c r="I11">
-        <v>0.0177738268618291</v>
+        <v>0.4419557237822829</v>
       </c>
       <c r="J11">
-        <v>0.02043067326341644</v>
+        <v>0.3606605907815933</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.018089</v>
+        <v>0.4122856666666667</v>
       </c>
       <c r="N11">
-        <v>0.054267</v>
+        <v>1.236857</v>
       </c>
       <c r="O11">
-        <v>0.03376040606800169</v>
+        <v>0.719344640233753</v>
       </c>
       <c r="P11">
-        <v>0.03535887627227643</v>
+        <v>0.789299637339657</v>
       </c>
       <c r="Q11">
-        <v>0.0003643245193333333</v>
+        <v>0.1655028044558333</v>
       </c>
       <c r="R11">
-        <v>0.003278920674</v>
+        <v>0.993016826735</v>
       </c>
       <c r="S11">
-        <v>0.0006000516122377068</v>
+        <v>0.3179184811234142</v>
       </c>
       <c r="T11">
-        <v>0.0007224056480804483</v>
+        <v>0.2846692735066181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,22 +1157,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02014066666666667</v>
+        <v>0.4014275</v>
       </c>
       <c r="H12">
-        <v>0.060422</v>
+        <v>0.802855</v>
       </c>
       <c r="I12">
-        <v>0.0177738268618291</v>
+        <v>0.4419557237822829</v>
       </c>
       <c r="J12">
-        <v>0.02043067326341644</v>
+        <v>0.3606605907815933</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.07266649999999999</v>
+        <v>0.152391</v>
       </c>
       <c r="N12">
-        <v>0.145333</v>
+        <v>0.304782</v>
       </c>
       <c r="O12">
-        <v>0.1356211259627644</v>
+        <v>0.2658876064165748</v>
       </c>
       <c r="P12">
-        <v>0.09469496315032619</v>
+        <v>0.1944964713525131</v>
       </c>
       <c r="Q12">
-        <v>0.001463551754333333</v>
+        <v>0.0611739381525</v>
       </c>
       <c r="R12">
-        <v>0.008781310525999999</v>
+        <v>0.24469575261</v>
       </c>
       <c r="S12">
-        <v>0.00241050641166849</v>
+        <v>0.1175105495385761</v>
       </c>
       <c r="T12">
-        <v>0.001934681851815575</v>
+        <v>0.07014721226293262</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02014066666666667</v>
+        <v>0.4014275</v>
       </c>
       <c r="H13">
-        <v>0.060422</v>
+        <v>0.802855</v>
       </c>
       <c r="I13">
-        <v>0.0177738268618291</v>
+        <v>0.4419557237822829</v>
       </c>
       <c r="J13">
-        <v>0.02043067326341644</v>
+        <v>0.3606605907815933</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,33 +1243,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03276399999999999</v>
+        <v>0.008464000000000001</v>
       </c>
       <c r="N13">
-        <v>0.09829199999999999</v>
+        <v>0.025392</v>
       </c>
       <c r="O13">
-        <v>0.06114909306274573</v>
+        <v>0.01476775334967216</v>
       </c>
       <c r="P13">
-        <v>0.06404434861987203</v>
+        <v>0.0162038913078299</v>
       </c>
       <c r="Q13">
-        <v>0.0006598888026666666</v>
+        <v>0.00339768236</v>
       </c>
       <c r="R13">
-        <v>0.005938999223999999</v>
+        <v>0.02038609416</v>
       </c>
       <c r="S13">
-        <v>0.001086853392855118</v>
+        <v>0.00652669312029259</v>
       </c>
       <c r="T13">
-        <v>0.001308469161020941</v>
+        <v>0.005844105012042658</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3076215</v>
+        <v>0.1704726666666667</v>
       </c>
       <c r="H14">
-        <v>0.615243</v>
+        <v>0.511418</v>
       </c>
       <c r="I14">
-        <v>0.2714712164431579</v>
+        <v>0.1876836309962883</v>
       </c>
       <c r="J14">
-        <v>0.2080339729006674</v>
+        <v>0.2297405110715396</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1311,89 +1311,89 @@
         <v>1.236857</v>
       </c>
       <c r="O14">
-        <v>0.769469374906488</v>
+        <v>0.719344640233753</v>
       </c>
       <c r="P14">
-        <v>0.8059018119575253</v>
+        <v>0.789299637339657</v>
       </c>
       <c r="Q14">
-        <v>0.1268279352085</v>
+        <v>0.07028343702511113</v>
       </c>
       <c r="R14">
-        <v>0.760967611251</v>
+        <v>0.6325509332260001</v>
       </c>
       <c r="S14">
-        <v>0.2088887872216206</v>
+        <v>0.1350092140167895</v>
       </c>
       <c r="T14">
-        <v>0.1676549557093705</v>
+        <v>0.1813341020709937</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3076215</v>
+        <v>0.1704726666666667</v>
       </c>
       <c r="H15">
-        <v>0.615243</v>
+        <v>0.511418</v>
       </c>
       <c r="I15">
-        <v>0.2714712164431579</v>
+        <v>0.1876836309962883</v>
       </c>
       <c r="J15">
-        <v>0.2080339729006674</v>
+        <v>0.2297405110715396</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.018089</v>
+        <v>0.152391</v>
       </c>
       <c r="N15">
-        <v>0.054267</v>
+        <v>0.304782</v>
       </c>
       <c r="O15">
-        <v>0.03376040606800169</v>
+        <v>0.2658876064165748</v>
       </c>
       <c r="P15">
-        <v>0.03535887627227643</v>
+        <v>0.1944964713525131</v>
       </c>
       <c r="Q15">
-        <v>0.005564565313499999</v>
+        <v>0.025978500146</v>
       </c>
       <c r="R15">
-        <v>0.033387391881</v>
+        <v>0.155871000876</v>
       </c>
       <c r="S15">
-        <v>0.009164978502895387</v>
+        <v>0.04990275140917477</v>
       </c>
       <c r="T15">
-        <v>0.007355847508224806</v>
+        <v>0.04468371873013742</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3076215</v>
+        <v>0.1704726666666667</v>
       </c>
       <c r="H16">
-        <v>0.615243</v>
+        <v>0.511418</v>
       </c>
       <c r="I16">
-        <v>0.2714712164431579</v>
+        <v>0.1876836309962883</v>
       </c>
       <c r="J16">
-        <v>0.2080339729006674</v>
+        <v>0.2297405110715396</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07266649999999999</v>
+        <v>0.008464000000000001</v>
       </c>
       <c r="N16">
-        <v>0.145333</v>
+        <v>0.025392</v>
       </c>
       <c r="O16">
-        <v>0.1356211259627644</v>
+        <v>0.01476775334967216</v>
       </c>
       <c r="P16">
-        <v>0.09469496315032619</v>
+        <v>0.0162038913078299</v>
       </c>
       <c r="Q16">
-        <v>0.02235377772975</v>
+        <v>0.001442880650666667</v>
       </c>
       <c r="R16">
-        <v>0.08941511091899999</v>
+        <v>0.012985925856</v>
       </c>
       <c r="S16">
-        <v>0.03681723204050239</v>
+        <v>0.00277166557032407</v>
       </c>
       <c r="T16">
-        <v>0.01969976939784465</v>
+        <v>0.00372269027040852</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3076215</v>
+        <v>0.03920866666666666</v>
       </c>
       <c r="H17">
-        <v>0.615243</v>
+        <v>0.117626</v>
       </c>
       <c r="I17">
-        <v>0.2714712164431579</v>
+        <v>0.04316718375100095</v>
       </c>
       <c r="J17">
-        <v>0.2080339729006674</v>
+        <v>0.05284025465529354</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.03276399999999999</v>
+        <v>0.4122856666666667</v>
       </c>
       <c r="N17">
-        <v>0.09829199999999999</v>
+        <v>1.236857</v>
       </c>
       <c r="O17">
-        <v>0.06114909306274573</v>
+        <v>0.719344640233753</v>
       </c>
       <c r="P17">
-        <v>0.06404434861987203</v>
+        <v>0.789299637339657</v>
       </c>
       <c r="Q17">
-        <v>0.010078910826</v>
+        <v>0.01616517127577778</v>
       </c>
       <c r="R17">
-        <v>0.06047346495599999</v>
+        <v>0.145486541482</v>
       </c>
       <c r="S17">
-        <v>0.01660021867813945</v>
+        <v>0.03105208226526808</v>
       </c>
       <c r="T17">
-        <v>0.01332340028522735</v>
+        <v>0.04170679383635832</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2817553333333334</v>
+        <v>0.03920866666666666</v>
       </c>
       <c r="H18">
-        <v>0.8452660000000001</v>
+        <v>0.117626</v>
       </c>
       <c r="I18">
-        <v>0.248644724375076</v>
+        <v>0.04316718375100095</v>
       </c>
       <c r="J18">
-        <v>0.2858123442897449</v>
+        <v>0.05284025465529354</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.4122856666666667</v>
+        <v>0.152391</v>
       </c>
       <c r="N18">
-        <v>1.236857</v>
+        <v>0.304782</v>
       </c>
       <c r="O18">
-        <v>0.769469374906488</v>
+        <v>0.2658876064165748</v>
       </c>
       <c r="P18">
-        <v>0.8059018119575253</v>
+        <v>0.1944964713525131</v>
       </c>
       <c r="Q18">
-        <v>0.1161636854402223</v>
+        <v>0.005975047922</v>
       </c>
       <c r="R18">
-        <v>1.045473168962</v>
+        <v>0.035850287532</v>
       </c>
       <c r="S18">
-        <v>0.1913245006386857</v>
+        <v>0.0114776191632981</v>
       </c>
       <c r="T18">
-        <v>0.2303366861429335</v>
+        <v>0.0102772430758228</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2817553333333334</v>
+        <v>0.03920866666666666</v>
       </c>
       <c r="H19">
-        <v>0.8452660000000001</v>
+        <v>0.117626</v>
       </c>
       <c r="I19">
-        <v>0.248644724375076</v>
+        <v>0.04316718375100095</v>
       </c>
       <c r="J19">
-        <v>0.2858123442897449</v>
+        <v>0.05284025465529354</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,400 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.018089</v>
+        <v>0.008464000000000001</v>
       </c>
       <c r="N19">
-        <v>0.054267</v>
+        <v>0.025392</v>
       </c>
       <c r="O19">
-        <v>0.03376040606800169</v>
+        <v>0.01476775334967216</v>
       </c>
       <c r="P19">
-        <v>0.03535887627227643</v>
+        <v>0.0162038913078299</v>
       </c>
       <c r="Q19">
-        <v>0.005096672224666666</v>
+        <v>0.0003318621546666667</v>
       </c>
       <c r="R19">
-        <v>0.045870050022</v>
+        <v>0.002986759392</v>
       </c>
       <c r="S19">
-        <v>0.008394346861568924</v>
+        <v>0.0006374823224347578</v>
       </c>
       <c r="T19">
-        <v>0.01010600331883036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.2817553333333334</v>
-      </c>
-      <c r="H20">
-        <v>0.8452660000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.248644724375076</v>
-      </c>
-      <c r="J20">
-        <v>0.2858123442897449</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>0.07266649999999999</v>
-      </c>
-      <c r="N20">
-        <v>0.145333</v>
-      </c>
-      <c r="O20">
-        <v>0.1356211259627644</v>
-      </c>
-      <c r="P20">
-        <v>0.09469496315032619</v>
-      </c>
-      <c r="Q20">
-        <v>0.02047417392966667</v>
-      </c>
-      <c r="R20">
-        <v>0.122845043578</v>
-      </c>
-      <c r="S20">
-        <v>0.03372147748444902</v>
-      </c>
-      <c r="T20">
-        <v>0.02706498941042573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.2817553333333334</v>
-      </c>
-      <c r="H21">
-        <v>0.8452660000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.248644724375076</v>
-      </c>
-      <c r="J21">
-        <v>0.2858123442897449</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.03276399999999999</v>
-      </c>
-      <c r="N21">
-        <v>0.09829199999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.06114909306274573</v>
-      </c>
-      <c r="P21">
-        <v>0.06404434861987203</v>
-      </c>
-      <c r="Q21">
-        <v>0.009231431741333333</v>
-      </c>
-      <c r="R21">
-        <v>0.08308288567199999</v>
-      </c>
-      <c r="S21">
-        <v>0.01520439939037228</v>
-      </c>
-      <c r="T21">
-        <v>0.01830466541755531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1930893333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.579268</v>
-      </c>
-      <c r="I22">
-        <v>0.1703983505775714</v>
-      </c>
-      <c r="J22">
-        <v>0.1958696375484545</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.4122856666666667</v>
-      </c>
-      <c r="N22">
-        <v>1.236857</v>
-      </c>
-      <c r="O22">
-        <v>0.769469374906488</v>
-      </c>
-      <c r="P22">
-        <v>0.8059018119575253</v>
-      </c>
-      <c r="Q22">
-        <v>0.07960796451955557</v>
-      </c>
-      <c r="R22">
-        <v>0.7164716806760001</v>
-      </c>
-      <c r="S22">
-        <v>0.1311163123040205</v>
-      </c>
-      <c r="T22">
-        <v>0.1578516958077632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1930893333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.579268</v>
-      </c>
-      <c r="I23">
-        <v>0.1703983505775714</v>
-      </c>
-      <c r="J23">
-        <v>0.1958696375484545</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.018089</v>
-      </c>
-      <c r="N23">
-        <v>0.054267</v>
-      </c>
-      <c r="O23">
-        <v>0.03376040606800169</v>
-      </c>
-      <c r="P23">
-        <v>0.03535887627227643</v>
-      </c>
-      <c r="Q23">
-        <v>0.003492792950666666</v>
-      </c>
-      <c r="R23">
-        <v>0.031435136556</v>
-      </c>
-      <c r="S23">
-        <v>0.005752717508816523</v>
-      </c>
-      <c r="T23">
-        <v>0.006925730279571432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1930893333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.579268</v>
-      </c>
-      <c r="I24">
-        <v>0.1703983505775714</v>
-      </c>
-      <c r="J24">
-        <v>0.1958696375484545</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.5</v>
-      </c>
-      <c r="M24">
-        <v>0.07266649999999999</v>
-      </c>
-      <c r="N24">
-        <v>0.145333</v>
-      </c>
-      <c r="O24">
-        <v>0.1356211259627644</v>
-      </c>
-      <c r="P24">
-        <v>0.09469496315032619</v>
-      </c>
-      <c r="Q24">
-        <v>0.01403112604066667</v>
-      </c>
-      <c r="R24">
-        <v>0.08418675624399999</v>
-      </c>
-      <c r="S24">
-        <v>0.02310961616752811</v>
-      </c>
-      <c r="T24">
-        <v>0.01854786810991864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1930893333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.579268</v>
-      </c>
-      <c r="I25">
-        <v>0.1703983505775714</v>
-      </c>
-      <c r="J25">
-        <v>0.1958696375484545</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.03276399999999999</v>
-      </c>
-      <c r="N25">
-        <v>0.09829199999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.06114909306274573</v>
-      </c>
-      <c r="P25">
-        <v>0.06404434861987203</v>
-      </c>
-      <c r="Q25">
-        <v>0.006326378917333332</v>
-      </c>
-      <c r="R25">
-        <v>0.05693741025599999</v>
-      </c>
-      <c r="S25">
-        <v>0.01041970459720629</v>
-      </c>
-      <c r="T25">
-        <v>0.01254434335120119</v>
+        <v>0.0008562177431124296</v>
       </c>
     </row>
   </sheetData>
